--- a/INPUTS/BASE_2018_LCORP/_ARCHIVE/REF_LABEL.xlsx
+++ b/INPUTS/BASE_2018_LCORP/_ARCHIVE/REF_LABEL.xlsx
@@ -12308,8 +12308,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D250A597B2B9634FBFF658D906DC2ED5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48964a7c8560d8b1ed71333a6f8bf75a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77be7b9b-28ec-4677-8dc6-f18afa427c8d" xmlns:ns3="34dbb5a2-c9fd-4d5b-9e3c-4bebcb76b28a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25813499f44843c127ae9bd9230158ce" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D250A597B2B9634FBFF658D906DC2ED5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2091fdb05986f5e9ea9388cd8317cc4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77be7b9b-28ec-4677-8dc6-f18afa427c8d" xmlns:ns3="34dbb5a2-c9fd-4d5b-9e3c-4bebcb76b28a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5039267e26b44d664e86f810e4e4106f" ns2:_="" ns3:_="">
     <xsd:import namespace="77be7b9b-28ec-4677-8dc6-f18afa427c8d"/>
     <xsd:import namespace="34dbb5a2-c9fd-4d5b-9e3c-4bebcb76b28a"/>
     <xsd:element name="properties">
@@ -12322,7 +12322,6 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
@@ -12330,6 +12329,8 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12362,43 +12363,45 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="116df305-adfd-4c0b-944e-20c5738546d9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="34dbb5a2-c9fd-4d5b-9e3c-4bebcb76b28a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -12417,12 +12420,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a65ddc41-df83-4b33-8742-52a2919c4fe4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="34dbb5a2-c9fd-4d5b-9e3c-4bebcb76b28a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -12535,7 +12549,12 @@
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="77be7b9b-28ec-4677-8dc6-f18afa427c8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="34dbb5a2-c9fd-4d5b-9e3c-4bebcb76b28a" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -12548,22 +12567,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1293FFA3-1D55-4504-87BB-4D5525512BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="77be7b9b-28ec-4677-8dc6-f18afa427c8d"/>
-    <ds:schemaRef ds:uri="34dbb5a2-c9fd-4d5b-9e3c-4bebcb76b28a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BB65F7A-5FFA-4F49-B23D-D8C0D82ED2E3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
